--- a/InterProPruebasAutomatizadas/InterProHerramientas/Comunes/DatosPrueba.xlsx
+++ b/InterProPruebasAutomatizadas/InterProHerramientas/Comunes/DatosPrueba.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="13">
   <si>
     <t>Usuario</t>
   </si>
@@ -45,13 +45,19 @@
     <t>Chrome</t>
   </si>
   <si>
-    <t>Acceso al Portal Usuario y Password correcto</t>
-  </si>
-  <si>
-    <t>admin</t>
-  </si>
-  <si>
     <t>https://inter-wepid-dev.azurewebsites.net/Admin/</t>
+  </si>
+  <si>
+    <t>admin@inter.mx</t>
+  </si>
+  <si>
+    <t>Rol</t>
+  </si>
+  <si>
+    <t>Administrador</t>
+  </si>
+  <si>
+    <t>Acceso_exitoso</t>
   </si>
 </sst>
 </file>
@@ -125,13 +131,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -413,23 +420,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C3" sqref="C3:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="40.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="48" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -448,19 +456,22 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="2">
         <v>12345678</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>6</v>
@@ -468,96 +479,182 @@
       <c r="F2" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
+      <c r="G2" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="2">
+        <v>12345678</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="2">
+        <v>12345678</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="2">
+        <v>12345678</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="2">
+        <v>12345678</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="2">
+        <v>12345678</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="2">
+        <v>12345678</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="2">
+        <v>12345678</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
+    <hyperlink ref="B4" r:id="rId3"/>
+    <hyperlink ref="B5" r:id="rId4"/>
+    <hyperlink ref="B6" r:id="rId5"/>
+    <hyperlink ref="B7" r:id="rId6"/>
+    <hyperlink ref="B8" r:id="rId7"/>
+    <hyperlink ref="B9" r:id="rId8"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/InterProPruebasAutomatizadas/InterProHerramientas/Comunes/DatosPrueba.xlsx
+++ b/InterProPruebasAutomatizadas/InterProHerramientas/Comunes/DatosPrueba.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="21">
   <si>
     <t>Usuario</t>
   </si>
@@ -58,6 +58,30 @@
   </si>
   <si>
     <t>Acceso_exitoso</t>
+  </si>
+  <si>
+    <t>Usuario_Incorrecto</t>
+  </si>
+  <si>
+    <t>Contrasenia_Incorrecta</t>
+  </si>
+  <si>
+    <t>admin@inter.m</t>
+  </si>
+  <si>
+    <t>Sin_Usuario</t>
+  </si>
+  <si>
+    <t>juan.valderrama@mobiik.com</t>
+  </si>
+  <si>
+    <t>00</t>
+  </si>
+  <si>
+    <t>Sin_Datos</t>
+  </si>
+  <si>
+    <t>Sin_Contrasenia</t>
   </si>
 </sst>
 </file>
@@ -138,7 +162,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -420,16 +444,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C9"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="40.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="48" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.140625" bestFit="1" customWidth="1"/>
@@ -464,7 +488,7 @@
       <c r="A2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="2">
@@ -487,11 +511,11 @@
       <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="2">
-        <v>12345678</v>
+      <c r="B3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>8</v>
@@ -508,10 +532,10 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>9</v>
+        <v>13</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="C4" s="2">
         <v>12345678</v>
@@ -531,13 +555,13 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="2">
-        <v>12345678</v>
+        <v>12345679</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>8</v>
@@ -554,13 +578,11 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>9</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="B6" s="3"/>
       <c r="C6" s="2">
-        <v>12345678</v>
+        <v>12345679</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>8</v>
@@ -577,14 +599,12 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="2">
-        <v>12345678</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="2"/>
       <c r="D7" s="3" t="s">
         <v>8</v>
       </c>
@@ -600,14 +620,10 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="2">
-        <v>12345678</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="2"/>
       <c r="D8" s="3" t="s">
         <v>8</v>
       </c>
@@ -618,42 +634,18 @@
         <v>7</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="2">
-        <v>12345678</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G9" s="2" t="s">
         <v>11</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="B3" r:id="rId2"/>
-    <hyperlink ref="B4" r:id="rId3"/>
-    <hyperlink ref="B5" r:id="rId4"/>
-    <hyperlink ref="B6" r:id="rId5"/>
-    <hyperlink ref="B7" r:id="rId6"/>
-    <hyperlink ref="B8" r:id="rId7"/>
-    <hyperlink ref="B9" r:id="rId8"/>
+    <hyperlink ref="B4" r:id="rId2"/>
+    <hyperlink ref="B5" r:id="rId3"/>
+    <hyperlink ref="D2" r:id="rId4"/>
+    <hyperlink ref="B3" r:id="rId5"/>
+    <hyperlink ref="D3" r:id="rId6"/>
+    <hyperlink ref="B7" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/InterProPruebasAutomatizadas/InterProHerramientas/Comunes/DatosPrueba.xlsx
+++ b/InterProPruebasAutomatizadas/InterProHerramientas/Comunes/DatosPrueba.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="UsuariosPortal" sheetId="1" r:id="rId1"/>
+    <sheet name="PlanesDeServicio" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="29">
   <si>
     <t>Usuario</t>
   </si>
@@ -82,13 +83,40 @@
   </si>
   <si>
     <t>Sin_Contrasenia</t>
+  </si>
+  <si>
+    <t>NombrePlan</t>
+  </si>
+  <si>
+    <t>Descripcion</t>
+  </si>
+  <si>
+    <t>Tarjeta</t>
+  </si>
+  <si>
+    <t>CostoPlan</t>
+  </si>
+  <si>
+    <t>Servicio1</t>
+  </si>
+  <si>
+    <t>Servicio2</t>
+  </si>
+  <si>
+    <t>Buro</t>
+  </si>
+  <si>
+    <t>PlanBasico</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -106,6 +134,13 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -151,11 +186,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -163,9 +199,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
+    <cellStyle name="Moneda" xfId="2" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -446,8 +484,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -649,4 +687,105 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="48" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="9" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="2">
+        <v>12345678</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" s="5">
+        <v>16</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="D2" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/InterProPruebasAutomatizadas/InterProHerramientas/Comunes/DatosPrueba.xlsx
+++ b/InterProPruebasAutomatizadas/InterProHerramientas/Comunes/DatosPrueba.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="38">
   <si>
     <t>Usuario</t>
   </si>
@@ -76,9 +76,6 @@
     <t>juan.valderrama@mobiik.com</t>
   </si>
   <si>
-    <t>00</t>
-  </si>
-  <si>
     <t>Sin_Datos</t>
   </si>
   <si>
@@ -97,16 +94,46 @@
     <t>CostoPlan</t>
   </si>
   <si>
-    <t>Servicio1</t>
-  </si>
-  <si>
-    <t>Servicio2</t>
-  </si>
-  <si>
     <t>Buro</t>
   </si>
   <si>
-    <t>PlanBasico</t>
+    <t>ServicioBuro</t>
+  </si>
+  <si>
+    <t>ServicioTarjeta</t>
+  </si>
+  <si>
+    <t>Tipo</t>
+  </si>
+  <si>
+    <t>Crear</t>
+  </si>
+  <si>
+    <t>Alta_Exitosa_PlanServicioCamposObligatorios</t>
+  </si>
+  <si>
+    <t>Alta_Exitosa_PlanServicioTodosLosCampos</t>
+  </si>
+  <si>
+    <t>FireFox</t>
+  </si>
+  <si>
+    <t>afd13ccb</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>PBuroTarjetaA</t>
+  </si>
+  <si>
+    <t>PBuroA</t>
+  </si>
+  <si>
+    <t>PTarjetasB</t>
+  </si>
+  <si>
+    <t>PBuroTarjetaB</t>
   </si>
 </sst>
 </file>
@@ -162,7 +189,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -185,13 +212,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -200,6 +238,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -482,17 +523,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="40.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" customWidth="1"/>
     <col min="4" max="4" width="48" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.28515625" bestFit="1" customWidth="1"/>
@@ -553,7 +594,7 @@
         <v>17</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>8</v>
@@ -637,7 +678,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>17</v>
@@ -658,7 +699,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="2"/>
@@ -672,6 +713,159 @@
         <v>7</v>
       </c>
       <c r="G8" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="2">
+        <v>12345678</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="2">
+        <v>12345678</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="2">
+        <v>12345679</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="2">
+        <v>12345679</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G15" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -684,6 +878,13 @@
     <hyperlink ref="B3" r:id="rId5"/>
     <hyperlink ref="D3" r:id="rId6"/>
     <hyperlink ref="B7" r:id="rId7"/>
+    <hyperlink ref="B9" r:id="rId8"/>
+    <hyperlink ref="B11" r:id="rId9"/>
+    <hyperlink ref="B12" r:id="rId10"/>
+    <hyperlink ref="D9" r:id="rId11"/>
+    <hyperlink ref="B10" r:id="rId12"/>
+    <hyperlink ref="D10" r:id="rId13"/>
+    <hyperlink ref="B14" r:id="rId14"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -691,27 +892,28 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="43.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="48" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="34.42578125" customWidth="1"/>
     <col min="8" max="8" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -731,13 +933,13 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>25</v>
@@ -745,46 +947,352 @@
       <c r="K1" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L1" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2" s="5">
+        <v>50</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C3" s="2">
         <v>12345678</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="2" t="s">
+      <c r="D3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H3" s="5">
+        <v>67</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="H2" s="5">
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="2">
+        <v>12345678</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4" s="5">
         <v>16</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>23</v>
-      </c>
+      <c r="I4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="2">
+        <v>12345678</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H5" s="5">
+        <v>16</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="2">
+        <v>12345678</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="2"/>
+      <c r="H6" s="5">
+        <v>16</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L6" s="2"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="2">
+        <v>12345678</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" s="2"/>
+      <c r="H7" s="5">
+        <v>16</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="2">
+        <v>12345678</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8" s="2"/>
+      <c r="H8" s="5">
+        <v>16</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L8" s="2"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="2">
+        <v>12345678</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G9" s="2"/>
+      <c r="H9" s="5">
+        <v>16</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L9" s="2"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="2">
+        <v>12345678</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G10" s="2"/>
+      <c r="H10" s="5">
+        <v>16</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L10" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
     <hyperlink ref="D2" r:id="rId2"/>
+    <hyperlink ref="D5" r:id="rId3"/>
+    <hyperlink ref="B7" r:id="rId4"/>
+    <hyperlink ref="D7" r:id="rId5"/>
+    <hyperlink ref="B8" r:id="rId6"/>
+    <hyperlink ref="D8" r:id="rId7"/>
+    <hyperlink ref="B6" r:id="rId8"/>
+    <hyperlink ref="D6" r:id="rId9"/>
+    <hyperlink ref="B9" r:id="rId10"/>
+    <hyperlink ref="D9" r:id="rId11"/>
+    <hyperlink ref="B10" r:id="rId12"/>
+    <hyperlink ref="D10" r:id="rId13"/>
+    <hyperlink ref="D3" r:id="rId14"/>
+    <hyperlink ref="B3" r:id="rId15"/>
+    <hyperlink ref="D4" r:id="rId16"/>
+    <hyperlink ref="B4" r:id="rId17"/>
+    <hyperlink ref="B5" r:id="rId18"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/InterProPruebasAutomatizadas/InterProHerramientas/Comunes/DatosPrueba.xlsx
+++ b/InterProPruebasAutomatizadas/InterProHerramientas/Comunes/DatosPrueba.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="51">
   <si>
     <t>Usuario</t>
   </si>
@@ -88,15 +88,9 @@
     <t>Descripcion</t>
   </si>
   <si>
-    <t>Tarjeta</t>
-  </si>
-  <si>
     <t>CostoPlan</t>
   </si>
   <si>
-    <t>Buro</t>
-  </si>
-  <si>
     <t>ServicioBuro</t>
   </si>
   <si>
@@ -127,13 +121,58 @@
     <t>PBuroTarjetaA</t>
   </si>
   <si>
-    <t>PBuroA</t>
-  </si>
-  <si>
-    <t>PTarjetasB</t>
-  </si>
-  <si>
-    <t>PBuroTarjetaB</t>
+    <t>Prueba Atutomatizada Chrome</t>
+  </si>
+  <si>
+    <t>Prueba Atutomatizada FireFox</t>
+  </si>
+  <si>
+    <t>PburoL</t>
+  </si>
+  <si>
+    <t>PTarjetasL</t>
+  </si>
+  <si>
+    <t>Validar</t>
+  </si>
+  <si>
+    <t>PlanServicioValidarCampos</t>
+  </si>
+  <si>
+    <t>PlanServicioValidarLongitudCampos</t>
+  </si>
+  <si>
+    <t>PlanServicioDuplicado</t>
+  </si>
+  <si>
+    <t>PlanServicioInactivarPlan</t>
+  </si>
+  <si>
+    <t>PBuroB</t>
+  </si>
+  <si>
+    <t>PlanServicioActivarPlan</t>
+  </si>
+  <si>
+    <t>Plan</t>
+  </si>
+  <si>
+    <t>Edicion_Exitosa_PlanServicioCamposObligatorios</t>
+  </si>
+  <si>
+    <t>PburoLEdicion</t>
+  </si>
+  <si>
+    <t>Prueba Atutomatizada Chrome Edicion</t>
+  </si>
+  <si>
+    <t>Editar</t>
+  </si>
+  <si>
+    <t>NombreAnterior</t>
+  </si>
+  <si>
+    <t>Edicion_Exitosa_PlanServicioTodosLosCampos</t>
   </si>
 </sst>
 </file>
@@ -594,7 +633,7 @@
         <v>17</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>8</v>
@@ -733,7 +772,7 @@
         <v>6</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>11</v>
@@ -747,7 +786,7 @@
         <v>17</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>8</v>
@@ -756,7 +795,7 @@
         <v>6</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>11</v>
@@ -779,7 +818,7 @@
         <v>6</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>11</v>
@@ -802,7 +841,7 @@
         <v>6</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>11</v>
@@ -823,7 +862,7 @@
         <v>6</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>11</v>
@@ -844,7 +883,7 @@
         <v>6</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>11</v>
@@ -863,7 +902,7 @@
         <v>6</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>11</v>
@@ -892,15 +931,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:M15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="43.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="45.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="48" bestFit="1" customWidth="1"/>
@@ -908,12 +947,13 @@
     <col min="6" max="6" width="8.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="34.42578125" customWidth="1"/>
     <col min="8" max="8" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="35.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -936,30 +976,33 @@
         <v>20</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>21</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="L1" s="6" t="s">
+      <c r="M1" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>8</v>
@@ -974,24 +1017,25 @@
         <v>35</v>
       </c>
       <c r="H2" s="5">
-        <v>50</v>
+        <v>21.2</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>6</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+      <c r="M2" s="2"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>9</v>
@@ -1006,33 +1050,34 @@
         <v>6</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>36</v>
       </c>
       <c r="H3" s="5">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M3" s="2"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="B4" s="3" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C4" s="2">
         <v>12345678</v>
@@ -1047,7 +1092,7 @@
         <v>7</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H4" s="5">
         <v>16</v>
@@ -1062,12 +1107,13 @@
         <v>6</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+      <c r="M4" s="2"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>9</v>
@@ -1079,67 +1125,59 @@
         <v>8</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="F5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="2"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M5" s="2"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="2">
+        <v>12345678</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="G5" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H5" s="5">
-        <v>16</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="2">
-        <v>12345678</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="F6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="2"/>
+      <c r="G6" s="2">
+        <v>27</v>
+      </c>
       <c r="H6" s="5">
         <v>16</v>
       </c>
-      <c r="I6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L6" s="2"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I6" s="2">
+        <v>101</v>
+      </c>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M6" s="2"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>9</v>
@@ -1151,29 +1189,32 @@
         <v>8</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>7</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="5">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>9</v>
@@ -1185,29 +1226,26 @@
         <v>8</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G8" s="2"/>
-      <c r="H8" s="5">
-        <v>16</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L8" s="2"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H8" s="5"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M8" s="2"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>9</v>
@@ -1219,29 +1257,26 @@
         <v>8</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G9" s="2"/>
-      <c r="H9" s="5">
-        <v>16</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L9" s="2"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G9" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H9" s="5"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M9" s="2"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>9</v>
@@ -1253,46 +1288,248 @@
         <v>8</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G10" s="2"/>
+      <c r="G10" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="H10" s="5">
-        <v>16</v>
+        <v>21.2</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L10" s="2"/>
+        <v>31</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="2">
+        <v>12345678</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H11" s="5">
+        <v>59.3</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="2">
+        <v>12345678</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" s="5">
+        <v>59.3</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="M12" s="2"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="2">
+        <v>12345678</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" s="5">
+        <v>59.3</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="M13" s="2"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="2">
+        <v>12345678</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" s="5">
+        <v>59.3</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="M14" s="2"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="2">
+        <v>12345678</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" s="5">
+        <v>59.3</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="M15" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
     <hyperlink ref="D2" r:id="rId2"/>
-    <hyperlink ref="D5" r:id="rId3"/>
-    <hyperlink ref="B7" r:id="rId4"/>
-    <hyperlink ref="D7" r:id="rId5"/>
-    <hyperlink ref="B8" r:id="rId6"/>
-    <hyperlink ref="D8" r:id="rId7"/>
-    <hyperlink ref="B6" r:id="rId8"/>
-    <hyperlink ref="D6" r:id="rId9"/>
-    <hyperlink ref="B9" r:id="rId10"/>
-    <hyperlink ref="D9" r:id="rId11"/>
-    <hyperlink ref="B10" r:id="rId12"/>
-    <hyperlink ref="D10" r:id="rId13"/>
-    <hyperlink ref="D3" r:id="rId14"/>
-    <hyperlink ref="B3" r:id="rId15"/>
-    <hyperlink ref="D4" r:id="rId16"/>
-    <hyperlink ref="B4" r:id="rId17"/>
-    <hyperlink ref="B5" r:id="rId18"/>
+    <hyperlink ref="B6" r:id="rId3"/>
+    <hyperlink ref="D6" r:id="rId4"/>
+    <hyperlink ref="B7" r:id="rId5"/>
+    <hyperlink ref="D7" r:id="rId6"/>
+    <hyperlink ref="B5" r:id="rId7"/>
+    <hyperlink ref="D5" r:id="rId8"/>
+    <hyperlink ref="B8" r:id="rId9"/>
+    <hyperlink ref="D8" r:id="rId10"/>
+    <hyperlink ref="B9" r:id="rId11"/>
+    <hyperlink ref="D9" r:id="rId12"/>
+    <hyperlink ref="D3" r:id="rId13"/>
+    <hyperlink ref="B3" r:id="rId14"/>
+    <hyperlink ref="D4" r:id="rId15"/>
+    <hyperlink ref="B4" r:id="rId16"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/InterProPruebasAutomatizadas/InterProHerramientas/Comunes/DatosPrueba.xlsx
+++ b/InterProPruebasAutomatizadas/InterProHerramientas/Comunes/DatosPrueba.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="UsuariosPortal" sheetId="1" r:id="rId1"/>
     <sheet name="PlanesDeServicio" sheetId="2" r:id="rId2"/>
+    <sheet name="Empleados" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="64">
   <si>
     <t>Usuario</t>
   </si>
@@ -173,6 +174,45 @@
   </si>
   <si>
     <t>Edicion_Exitosa_PlanServicioTodosLosCampos</t>
+  </si>
+  <si>
+    <t>NombreUsuario</t>
+  </si>
+  <si>
+    <t>CorreoElectronico</t>
+  </si>
+  <si>
+    <t>Administrador Negocio</t>
+  </si>
+  <si>
+    <t>Alta_Exitosa_EmpleadoCamposObligatorios</t>
+  </si>
+  <si>
+    <t>Andrea Torres Perez</t>
+  </si>
+  <si>
+    <t>AndreaTorresPerez@mailinator.com</t>
+  </si>
+  <si>
+    <t>EmpleadoValidarCampos</t>
+  </si>
+  <si>
+    <t>EmpleadoValidarLongitudCampos</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>EmpleadoValidarUsuarioDuplicado</t>
+  </si>
+  <si>
+    <t>EmpleadoValidarUsuarioEliminar</t>
+  </si>
+  <si>
+    <t>Reactivacion_Exitosa_EmpleadoCamposObligatorios</t>
+  </si>
+  <si>
+    <t>Edicion_Exitosa_EmpleadoCamposObligatorios</t>
   </si>
 </sst>
 </file>
@@ -268,7 +308,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -280,6 +320,8 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -933,8 +975,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1533,4 +1575,309 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="48.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="48" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="35.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="28.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="D2" r:id="rId2"/>
+    <hyperlink ref="H2" r:id="rId3"/>
+    <hyperlink ref="B3" r:id="rId4"/>
+    <hyperlink ref="D3" r:id="rId5"/>
+    <hyperlink ref="H3" r:id="rId6"/>
+    <hyperlink ref="B4" r:id="rId7"/>
+    <hyperlink ref="D4" r:id="rId8"/>
+    <hyperlink ref="H4" r:id="rId9"/>
+    <hyperlink ref="B5" r:id="rId10"/>
+    <hyperlink ref="D5" r:id="rId11"/>
+    <hyperlink ref="H5" r:id="rId12"/>
+    <hyperlink ref="B6" r:id="rId13"/>
+    <hyperlink ref="D6" r:id="rId14"/>
+    <hyperlink ref="H6" r:id="rId15"/>
+    <hyperlink ref="B7" r:id="rId16"/>
+    <hyperlink ref="D7" r:id="rId17"/>
+    <hyperlink ref="H7" r:id="rId18"/>
+    <hyperlink ref="B8" r:id="rId19"/>
+    <hyperlink ref="D8" r:id="rId20"/>
+    <hyperlink ref="H8" r:id="rId21"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/InterProPruebasAutomatizadas/InterProHerramientas/Comunes/DatosPrueba.xlsx
+++ b/InterProPruebasAutomatizadas/InterProHerramientas/Comunes/DatosPrueba.xlsx
@@ -188,12 +188,6 @@
     <t>Alta_Exitosa_EmpleadoCamposObligatorios</t>
   </si>
   <si>
-    <t>Andrea Torres Perez</t>
-  </si>
-  <si>
-    <t>AndreaTorresPerez@mailinator.com</t>
-  </si>
-  <si>
     <t>EmpleadoValidarCampos</t>
   </si>
   <si>
@@ -213,6 +207,12 @@
   </si>
   <si>
     <t>Edicion_Exitosa_EmpleadoCamposObligatorios</t>
+  </si>
+  <si>
+    <t>Susana Perez Diaz</t>
+  </si>
+  <si>
+    <t>SusanaPerezDiaz@mailinator.com</t>
   </si>
 </sst>
 </file>
@@ -1582,7 +1582,7 @@
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="H3" sqref="H3:H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1650,10 +1650,10 @@
         <v>7</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>53</v>
@@ -1664,7 +1664,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>17</v>
@@ -1682,10 +1682,10 @@
         <v>7</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>53</v>
@@ -1696,7 +1696,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>17</v>
@@ -1714,10 +1714,10 @@
         <v>7</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>53</v>
@@ -1728,7 +1728,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>17</v>
@@ -1746,10 +1746,10 @@
         <v>7</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>53</v>
@@ -1760,7 +1760,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>17</v>
@@ -1778,10 +1778,10 @@
         <v>7</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>53</v>
@@ -1792,7 +1792,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>17</v>
@@ -1810,10 +1810,10 @@
         <v>7</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>53</v>
@@ -1824,7 +1824,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>17</v>
@@ -1842,10 +1842,10 @@
         <v>7</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>53</v>
@@ -1861,22 +1861,17 @@
     <hyperlink ref="H2" r:id="rId3"/>
     <hyperlink ref="B3" r:id="rId4"/>
     <hyperlink ref="D3" r:id="rId5"/>
-    <hyperlink ref="H3" r:id="rId6"/>
-    <hyperlink ref="B4" r:id="rId7"/>
-    <hyperlink ref="D4" r:id="rId8"/>
-    <hyperlink ref="H4" r:id="rId9"/>
-    <hyperlink ref="B5" r:id="rId10"/>
-    <hyperlink ref="D5" r:id="rId11"/>
-    <hyperlink ref="H5" r:id="rId12"/>
-    <hyperlink ref="B6" r:id="rId13"/>
-    <hyperlink ref="D6" r:id="rId14"/>
-    <hyperlink ref="H6" r:id="rId15"/>
-    <hyperlink ref="B7" r:id="rId16"/>
-    <hyperlink ref="D7" r:id="rId17"/>
-    <hyperlink ref="H7" r:id="rId18"/>
-    <hyperlink ref="B8" r:id="rId19"/>
-    <hyperlink ref="D8" r:id="rId20"/>
-    <hyperlink ref="H8" r:id="rId21"/>
+    <hyperlink ref="B4" r:id="rId6"/>
+    <hyperlink ref="D4" r:id="rId7"/>
+    <hyperlink ref="B5" r:id="rId8"/>
+    <hyperlink ref="D5" r:id="rId9"/>
+    <hyperlink ref="B6" r:id="rId10"/>
+    <hyperlink ref="D6" r:id="rId11"/>
+    <hyperlink ref="B7" r:id="rId12"/>
+    <hyperlink ref="D7" r:id="rId13"/>
+    <hyperlink ref="B8" r:id="rId14"/>
+    <hyperlink ref="D8" r:id="rId15"/>
+    <hyperlink ref="H3:H8" r:id="rId16" display="SusanaPerezDiaz@mailinator.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/InterProPruebasAutomatizadas/InterProHerramientas/Comunes/DatosPrueba.xlsx
+++ b/InterProPruebasAutomatizadas/InterProHerramientas/Comunes/DatosPrueba.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="UsuariosPortal" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="61">
   <si>
     <t>Usuario</t>
   </si>
@@ -110,30 +110,18 @@
     <t>Alta_Exitosa_PlanServicioTodosLosCampos</t>
   </si>
   <si>
-    <t>FireFox</t>
-  </si>
-  <si>
     <t>afd13ccb</t>
   </si>
   <si>
     <t>false</t>
   </si>
   <si>
-    <t>PBuroTarjetaA</t>
-  </si>
-  <si>
     <t>Prueba Atutomatizada Chrome</t>
   </si>
   <si>
     <t>Prueba Atutomatizada FireFox</t>
   </si>
   <si>
-    <t>PburoL</t>
-  </si>
-  <si>
-    <t>PTarjetasL</t>
-  </si>
-  <si>
     <t>Validar</t>
   </si>
   <si>
@@ -149,21 +137,12 @@
     <t>PlanServicioInactivarPlan</t>
   </si>
   <si>
-    <t>PBuroB</t>
-  </si>
-  <si>
     <t>PlanServicioActivarPlan</t>
   </si>
   <si>
-    <t>Plan</t>
-  </si>
-  <si>
     <t>Edicion_Exitosa_PlanServicioCamposObligatorios</t>
   </si>
   <si>
-    <t>PburoLEdicion</t>
-  </si>
-  <si>
     <t>Prueba Atutomatizada Chrome Edicion</t>
   </si>
   <si>
@@ -209,10 +188,22 @@
     <t>Edicion_Exitosa_EmpleadoCamposObligatorios</t>
   </si>
   <si>
-    <t>Susana Perez Diaz</t>
-  </si>
-  <si>
-    <t>SusanaPerezDiaz@mailinator.com</t>
+    <t>AljandroGomezTorres@mailinator.com</t>
+  </si>
+  <si>
+    <t>Gomez Torres</t>
+  </si>
+  <si>
+    <t>DPautomatB</t>
+  </si>
+  <si>
+    <t>DPautomatBEditado</t>
+  </si>
+  <si>
+    <t>DPautomatBT</t>
+  </si>
+  <si>
+    <t>DPautomatT</t>
   </si>
 </sst>
 </file>
@@ -604,7 +595,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -675,7 +666,7 @@
         <v>17</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>8</v>
@@ -794,159 +785,6 @@
         <v>7</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="2">
-        <v>12345678</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="2">
-        <v>12345678</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="2">
-        <v>12345679</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="2">
-        <v>12345679</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G15" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -959,13 +797,6 @@
     <hyperlink ref="B3" r:id="rId5"/>
     <hyperlink ref="D3" r:id="rId6"/>
     <hyperlink ref="B7" r:id="rId7"/>
-    <hyperlink ref="B9" r:id="rId8"/>
-    <hyperlink ref="B11" r:id="rId9"/>
-    <hyperlink ref="B12" r:id="rId10"/>
-    <hyperlink ref="D9" r:id="rId11"/>
-    <hyperlink ref="B10" r:id="rId12"/>
-    <hyperlink ref="D10" r:id="rId13"/>
-    <hyperlink ref="B14" r:id="rId14"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -973,10 +804,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M15"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -992,7 +823,7 @@
     <col min="9" max="9" width="35.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
@@ -1033,7 +864,7 @@
         <v>25</v>
       </c>
       <c r="M1" s="6" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -1044,7 +875,7 @@
         <v>17</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>8</v>
@@ -1056,19 +887,19 @@
         <v>7</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="H2" s="5">
         <v>21.2</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>6</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>26</v>
@@ -1095,16 +926,16 @@
         <v>7</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="H3" s="5">
         <v>45</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>6</v>
@@ -1134,7 +965,7 @@
         <v>7</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="H4" s="5">
         <v>16</v>
@@ -1155,7 +986,7 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>9</v>
@@ -1167,7 +998,7 @@
         <v>8</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>7</v>
@@ -1178,13 +1009,13 @@
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
       <c r="L5" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="M5" s="2"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>9</v>
@@ -1196,7 +1027,7 @@
         <v>8</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>7</v>
@@ -1213,13 +1044,13 @@
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="M6" s="2"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>9</v>
@@ -1231,17 +1062,19 @@
         <v>8</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="2"/>
+      <c r="G7" s="2" t="s">
+        <v>57</v>
+      </c>
       <c r="H7" s="5">
         <v>11</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>6</v>
@@ -1250,13 +1083,13 @@
         <v>6</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="M7" s="2"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>9</v>
@@ -1268,26 +1101,26 @@
         <v>8</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>7</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="H8" s="5"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="M8" s="2"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>9</v>
@@ -1299,26 +1132,26 @@
         <v>8</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>7</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="H9" s="5"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="M9" s="2"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>9</v>
@@ -1336,30 +1169,30 @@
         <v>7</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="H10" s="5">
         <v>21.2</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>9</v>
@@ -1377,13 +1210,13 @@
         <v>7</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="H11" s="5">
         <v>59.3</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>6</v>
@@ -1392,167 +1225,11 @@
         <v>6</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="2">
-        <v>12345678</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="H12" s="5">
-        <v>59.3</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="L12" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="M12" s="2"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="2">
-        <v>12345678</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="H13" s="5">
-        <v>59.3</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="L13" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="M13" s="2"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="2">
-        <v>12345678</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="H14" s="5">
-        <v>59.3</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="L14" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="M14" s="2"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="2">
-        <v>12345678</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="H15" s="5">
-        <v>59.3</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="K15" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="L15" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="M15" s="2"/>
+        <v>58</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1570,8 +1247,6 @@
     <hyperlink ref="D9" r:id="rId12"/>
     <hyperlink ref="D3" r:id="rId13"/>
     <hyperlink ref="B3" r:id="rId14"/>
-    <hyperlink ref="D4" r:id="rId15"/>
-    <hyperlink ref="B4" r:id="rId16"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1581,8 +1256,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3:H8"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1593,8 +1268,8 @@
     <col min="4" max="4" width="48" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="35.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="37.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="28.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1618,10 +1293,10 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>10</v>
@@ -1632,13 +1307,13 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>8</v>
@@ -1650,13 +1325,13 @@
         <v>7</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>26</v>
@@ -1664,13 +1339,13 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>8</v>
@@ -1681,14 +1356,12 @@
       <c r="F3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="5" t="s">
-        <v>62</v>
-      </c>
+      <c r="G3" s="5"/>
       <c r="H3" s="7" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>26</v>
@@ -1696,13 +1369,13 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>8</v>
@@ -1714,13 +1387,13 @@
         <v>7</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>26</v>
@@ -1728,13 +1401,13 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>8</v>
@@ -1746,13 +1419,13 @@
         <v>7</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>26</v>
@@ -1760,13 +1433,13 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>8</v>
@@ -1778,13 +1451,13 @@
         <v>7</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>26</v>
@@ -1792,13 +1465,13 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>8</v>
@@ -1810,13 +1483,13 @@
         <v>7</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>26</v>
@@ -1824,13 +1497,13 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>8</v>
@@ -1842,13 +1515,13 @@
         <v>7</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>26</v>
@@ -1871,7 +1544,7 @@
     <hyperlink ref="D7" r:id="rId13"/>
     <hyperlink ref="B8" r:id="rId14"/>
     <hyperlink ref="D8" r:id="rId15"/>
-    <hyperlink ref="H3:H8" r:id="rId16" display="SusanaPerezDiaz@mailinator.com"/>
+    <hyperlink ref="H3:H8" r:id="rId16" display="AljandroGomezTorres@mailinator.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/InterProPruebasAutomatizadas/InterProHerramientas/Comunes/DatosPrueba.xlsx
+++ b/InterProPruebasAutomatizadas/InterProHerramientas/Comunes/DatosPrueba.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="UsuariosPortal" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="63">
   <si>
     <t>Usuario</t>
   </si>
@@ -74,9 +74,6 @@
     <t>Sin_Usuario</t>
   </si>
   <si>
-    <t>juan.valderrama@mobiik.com</t>
-  </si>
-  <si>
     <t>Sin_Datos</t>
   </si>
   <si>
@@ -110,9 +107,6 @@
     <t>Alta_Exitosa_PlanServicioTodosLosCampos</t>
   </si>
   <si>
-    <t>afd13ccb</t>
-  </si>
-  <si>
     <t>false</t>
   </si>
   <si>
@@ -188,22 +182,34 @@
     <t>Edicion_Exitosa_EmpleadoCamposObligatorios</t>
   </si>
   <si>
-    <t>AljandroGomezTorres@mailinator.com</t>
-  </si>
-  <si>
-    <t>Gomez Torres</t>
-  </si>
-  <si>
-    <t>DPautomatB</t>
-  </si>
-  <si>
-    <t>DPautomatBEditado</t>
-  </si>
-  <si>
-    <t>DPautomatBT</t>
-  </si>
-  <si>
-    <t>DPautomatT</t>
+    <t>EPautomatB</t>
+  </si>
+  <si>
+    <t>EPautomatT</t>
+  </si>
+  <si>
+    <t>EPautomatBT</t>
+  </si>
+  <si>
+    <t>EPautomatBEditado</t>
+  </si>
+  <si>
+    <t>Armando Mejia</t>
+  </si>
+  <si>
+    <t>ArmandoMejia@mailinator.com</t>
+  </si>
+  <si>
+    <t>pruebacorreoyopmailcom</t>
+  </si>
+  <si>
+    <t>prueba.correo@yopmail.com</t>
+  </si>
+  <si>
+    <t>juan.valderrama1@mobiik.com</t>
+  </si>
+  <si>
+    <t>Juan Valderrama</t>
   </si>
 </sst>
 </file>
@@ -299,14 +305,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -595,10 +600,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -660,13 +665,13 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>29</v>
+        <v>15</v>
+      </c>
+      <c r="C3" s="2">
+        <v>12345678</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>8</v>
@@ -683,13 +688,13 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C4" s="2">
-        <v>12345678</v>
+        <v>12345679</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>8</v>
@@ -706,11 +711,9 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>9</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="B5" s="3"/>
       <c r="C5" s="2">
         <v>12345679</v>
       </c>
@@ -729,12 +732,12 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="2">
-        <v>12345679</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="2"/>
       <c r="D6" s="3" t="s">
         <v>8</v>
       </c>
@@ -750,11 +753,9 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="3" t="s">
         <v>17</v>
       </c>
+      <c r="B7" s="3"/>
       <c r="C7" s="2"/>
       <c r="D7" s="3" t="s">
         <v>8</v>
@@ -766,37 +767,16 @@
         <v>7</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G8" s="2" t="s">
         <v>11</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="B4" r:id="rId2"/>
-    <hyperlink ref="B5" r:id="rId3"/>
+    <hyperlink ref="B3" r:id="rId2"/>
+    <hyperlink ref="B4" r:id="rId3"/>
     <hyperlink ref="D2" r:id="rId4"/>
-    <hyperlink ref="B3" r:id="rId5"/>
-    <hyperlink ref="D3" r:id="rId6"/>
-    <hyperlink ref="B7" r:id="rId7"/>
+    <hyperlink ref="B6" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -806,8 +786,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -846,69 +826,69 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="L1" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>42</v>
+      <c r="M1" s="5" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="2">
+        <v>12345678</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H2" s="4">
+        <v>21.2</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="H2" s="5">
-        <v>21.2</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="J2" s="2" t="s">
         <v>6</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M2" s="2"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>9</v>
@@ -926,28 +906,28 @@
         <v>7</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="H3" s="5">
+        <v>54</v>
+      </c>
+      <c r="H3" s="4">
         <v>45</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M3" s="2"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>9</v>
@@ -965,9 +945,9 @@
         <v>7</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="H4" s="5">
+        <v>55</v>
+      </c>
+      <c r="H4" s="4">
         <v>16</v>
       </c>
       <c r="I4" s="2" t="s">
@@ -980,13 +960,13 @@
         <v>6</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M4" s="2"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>9</v>
@@ -998,24 +978,24 @@
         <v>8</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>7</v>
       </c>
       <c r="G5" s="2"/>
-      <c r="H5" s="5"/>
+      <c r="H5" s="4"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
       <c r="L5" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="M5" s="2"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>9</v>
@@ -1027,7 +1007,7 @@
         <v>8</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>7</v>
@@ -1035,7 +1015,7 @@
       <c r="G6" s="2">
         <v>27</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="4">
         <v>16</v>
       </c>
       <c r="I6" s="2">
@@ -1044,13 +1024,13 @@
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="M6" s="2"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>9</v>
@@ -1062,20 +1042,20 @@
         <v>8</v>
       </c>
       <c r="E7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H7" s="4">
+        <v>11</v>
+      </c>
+      <c r="I7" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="H7" s="5">
-        <v>11</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="J7" s="2" t="s">
         <v>6</v>
       </c>
@@ -1083,13 +1063,13 @@
         <v>6</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="M7" s="2"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>9</v>
@@ -1101,26 +1081,26 @@
         <v>8</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>7</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="H8" s="5"/>
+        <v>53</v>
+      </c>
+      <c r="H8" s="4"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="M8" s="2"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>9</v>
@@ -1132,67 +1112,67 @@
         <v>8</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>7</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="H9" s="5"/>
+        <v>53</v>
+      </c>
+      <c r="H9" s="4"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="M9" s="2"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="2">
+        <v>12345678</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H10" s="4">
+        <v>21.2</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L10" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="2">
-        <v>12345678</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="H10" s="5">
-        <v>21.2</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="M10" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>9</v>
@@ -1210,13 +1190,13 @@
         <v>7</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="H11" s="5">
+        <v>53</v>
+      </c>
+      <c r="H11" s="4">
         <v>59.3</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>6</v>
@@ -1225,28 +1205,21 @@
         <v>6</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="D2" r:id="rId2"/>
-    <hyperlink ref="B6" r:id="rId3"/>
-    <hyperlink ref="D6" r:id="rId4"/>
-    <hyperlink ref="B7" r:id="rId5"/>
-    <hyperlink ref="D7" r:id="rId6"/>
-    <hyperlink ref="B5" r:id="rId7"/>
-    <hyperlink ref="D5" r:id="rId8"/>
-    <hyperlink ref="B8" r:id="rId9"/>
-    <hyperlink ref="D8" r:id="rId10"/>
-    <hyperlink ref="B9" r:id="rId11"/>
-    <hyperlink ref="D9" r:id="rId12"/>
-    <hyperlink ref="D3" r:id="rId13"/>
-    <hyperlink ref="B3" r:id="rId14"/>
+    <hyperlink ref="B6" r:id="rId1"/>
+    <hyperlink ref="B7" r:id="rId2"/>
+    <hyperlink ref="B5" r:id="rId3"/>
+    <hyperlink ref="B8" r:id="rId4"/>
+    <hyperlink ref="B9" r:id="rId5"/>
+    <hyperlink ref="B3" r:id="rId6"/>
+    <hyperlink ref="D2:D11" r:id="rId7" display="https://inter-wepid-dev.azurewebsites.net/Admin/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1256,8 +1229,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1293,27 +1266,27 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>29</v>
+        <v>9</v>
+      </c>
+      <c r="C2" s="2">
+        <v>12345678</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>8</v>
@@ -1324,28 +1297,28 @@
       <c r="F2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>55</v>
+      <c r="G2" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>58</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>29</v>
+        <v>9</v>
+      </c>
+      <c r="C3" s="2">
+        <v>12345678</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>8</v>
@@ -1356,26 +1329,26 @@
       <c r="F3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="5"/>
-      <c r="H3" s="7" t="s">
-        <v>55</v>
+      <c r="G3" s="4"/>
+      <c r="H3" s="6" t="s">
+        <v>58</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>29</v>
+        <v>9</v>
+      </c>
+      <c r="C4" s="2">
+        <v>12345678</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>8</v>
@@ -1386,28 +1359,28 @@
       <c r="F4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>55</v>
+      <c r="G4" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>58</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>29</v>
+        <v>9</v>
+      </c>
+      <c r="C5" s="2">
+        <v>12345678</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>8</v>
@@ -1418,28 +1391,28 @@
       <c r="F5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>55</v>
+      <c r="G5" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>58</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>29</v>
+        <v>9</v>
+      </c>
+      <c r="C6" s="2">
+        <v>12345678</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>8</v>
@@ -1450,28 +1423,28 @@
       <c r="F6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>55</v>
+      <c r="G6" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>60</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>29</v>
+        <v>9</v>
+      </c>
+      <c r="C7" s="2">
+        <v>12345678</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>8</v>
@@ -1482,28 +1455,28 @@
       <c r="F7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>55</v>
+      <c r="G7" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>61</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>29</v>
+        <v>9</v>
+      </c>
+      <c r="C8" s="2">
+        <v>12345678</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>8</v>
@@ -1514,37 +1487,30 @@
       <c r="F8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G8" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>55</v>
+      <c r="G8" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>58</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="D2" r:id="rId2"/>
-    <hyperlink ref="H2" r:id="rId3"/>
-    <hyperlink ref="B3" r:id="rId4"/>
-    <hyperlink ref="D3" r:id="rId5"/>
-    <hyperlink ref="B4" r:id="rId6"/>
-    <hyperlink ref="D4" r:id="rId7"/>
-    <hyperlink ref="B5" r:id="rId8"/>
-    <hyperlink ref="D5" r:id="rId9"/>
-    <hyperlink ref="B6" r:id="rId10"/>
-    <hyperlink ref="D6" r:id="rId11"/>
-    <hyperlink ref="B7" r:id="rId12"/>
-    <hyperlink ref="D7" r:id="rId13"/>
-    <hyperlink ref="B8" r:id="rId14"/>
-    <hyperlink ref="D8" r:id="rId15"/>
-    <hyperlink ref="H3:H8" r:id="rId16" display="AljandroGomezTorres@mailinator.com"/>
+    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="D3" r:id="rId2"/>
+    <hyperlink ref="D4" r:id="rId3"/>
+    <hyperlink ref="D5" r:id="rId4"/>
+    <hyperlink ref="D6" r:id="rId5"/>
+    <hyperlink ref="D7" r:id="rId6"/>
+    <hyperlink ref="D8" r:id="rId7"/>
+    <hyperlink ref="H7" r:id="rId8"/>
+    <hyperlink ref="H6" r:id="rId9"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/InterProPruebasAutomatizadas/InterProHerramientas/Comunes/DatosPrueba.xlsx
+++ b/InterProPruebasAutomatizadas/InterProHerramientas/Comunes/DatosPrueba.xlsx
@@ -4,14 +4,15 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="UsuariosPortal" sheetId="1" r:id="rId1"/>
     <sheet name="PlanesDeServicio" sheetId="2" r:id="rId2"/>
     <sheet name="Empleados" sheetId="3" r:id="rId3"/>
+    <sheet name="PreguntasFrecuentes" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="86">
   <si>
     <t>Usuario</t>
   </si>
@@ -210,6 +211,75 @@
   </si>
   <si>
     <t>Juan Valderrama</t>
+  </si>
+  <si>
+    <t>Categoria</t>
+  </si>
+  <si>
+    <t>Activar</t>
+  </si>
+  <si>
+    <t>Pregunta</t>
+  </si>
+  <si>
+    <t>Respuesta</t>
+  </si>
+  <si>
+    <t>Servicio / Producto</t>
+  </si>
+  <si>
+    <t>Robo de identidad</t>
+  </si>
+  <si>
+    <t>Contacto</t>
+  </si>
+  <si>
+    <t>Quienes somos</t>
+  </si>
+  <si>
+    <t>Tiene dudas sobre el producto</t>
+  </si>
+  <si>
+    <t>Como proteger su identidad</t>
+  </si>
+  <si>
+    <t>Desea contactarnos</t>
+  </si>
+  <si>
+    <t>Informacion de WEPID</t>
+  </si>
+  <si>
+    <t>xxxx</t>
+  </si>
+  <si>
+    <t>TipoPrueba</t>
+  </si>
+  <si>
+    <t>Crea</t>
+  </si>
+  <si>
+    <t>Alta_Exitosa_PreguntaCamposObligatorios</t>
+  </si>
+  <si>
+    <t>Eliminar_Pregunta</t>
+  </si>
+  <si>
+    <t>Editar_Pregunta</t>
+  </si>
+  <si>
+    <t>xxxxxxxx</t>
+  </si>
+  <si>
+    <t>La pregunta sera dada de baja</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>editar</t>
+  </si>
+  <si>
+    <t>Eliminar</t>
   </si>
 </sst>
 </file>
@@ -1229,8 +1299,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1514,4 +1584,350 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="48.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="48" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" customWidth="1"/>
+    <col min="9" max="9" width="31.7109375" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="2">
+        <v>12345678</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="2">
+        <v>12345678</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="2">
+        <v>12345678</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="2">
+        <v>12345678</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="2">
+        <v>12345678</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="2">
+        <v>12345678</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="2">
+        <v>12345678</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="2">
+        <v>12345678</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="D3" r:id="rId2"/>
+    <hyperlink ref="D4" r:id="rId3"/>
+    <hyperlink ref="D5" r:id="rId4"/>
+    <hyperlink ref="D6" r:id="rId5"/>
+    <hyperlink ref="D7" r:id="rId6"/>
+    <hyperlink ref="D8" r:id="rId7"/>
+    <hyperlink ref="D9" r:id="rId8"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/InterProPruebasAutomatizadas/InterProHerramientas/Comunes/DatosPrueba.xlsx
+++ b/InterProPruebasAutomatizadas/InterProHerramientas/Comunes/DatosPrueba.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="91">
   <si>
     <t>Usuario</t>
   </si>
@@ -270,9 +270,6 @@
     <t>xxxxxxxx</t>
   </si>
   <si>
-    <t>La pregunta sera dada de baja</t>
-  </si>
-  <si>
     <t>N/A</t>
   </si>
   <si>
@@ -280,6 +277,24 @@
   </si>
   <si>
     <t>Eliminar</t>
+  </si>
+  <si>
+    <t>Validar_Pregunta_Duplicada</t>
+  </si>
+  <si>
+    <t>Validar_Campos_Obligatorios</t>
+  </si>
+  <si>
+    <t>Varlidar_Longitud_Campos</t>
+  </si>
+  <si>
+    <t>Alta_Exitosa_PreguntaCamposObligatorios_</t>
+  </si>
+  <si>
+    <t>PreguntaEditada</t>
+  </si>
+  <si>
+    <t>Esta Pregunta Fue editada</t>
   </si>
 </sst>
 </file>
@@ -856,7 +871,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
@@ -1300,7 +1315,7 @@
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1588,10 +1603,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1606,9 +1621,10 @@
     <col min="8" max="8" width="13.42578125" customWidth="1"/>
     <col min="9" max="9" width="31.7109375" customWidth="1"/>
     <col min="10" max="10" width="13.42578125" customWidth="1"/>
+    <col min="12" max="12" width="28.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -1642,8 +1658,11 @@
       <c r="K1" s="1" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L1" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>78</v>
       </c>
@@ -1677,10 +1696,11 @@
       <c r="K2" s="2" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L2" s="2"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>9</v>
@@ -1712,10 +1732,11 @@
       <c r="K3" s="2" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L3" s="2"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>9</v>
@@ -1747,10 +1768,11 @@
       <c r="K4" s="2" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L4" s="2"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>9</v>
@@ -1782,8 +1804,9 @@
       <c r="K5" s="2" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L5" s="2"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>80</v>
       </c>
@@ -1803,22 +1826,25 @@
         <v>7</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H6" s="6" t="s">
         <v>6</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>81</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>79</v>
       </c>
@@ -1844,14 +1870,15 @@
         <v>6</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J7" s="2"/>
       <c r="K7" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>79</v>
       </c>
@@ -1877,14 +1904,15 @@
         <v>6</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J8" s="2"/>
       <c r="K8" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+      <c r="L8" s="2"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>79</v>
       </c>
@@ -1910,12 +1938,117 @@
         <v>6</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J9" s="2"/>
       <c r="K9" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="L9" s="2"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>85</v>
       </c>
+      <c r="B10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="2">
+        <v>12345678</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L10" s="2"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="2">
+        <v>12345678</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L11" s="2"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="2">
+        <v>12345678</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I12" s="2">
+        <v>50</v>
+      </c>
+      <c r="J12" s="2">
+        <v>50</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L12" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1926,7 +2059,9 @@
     <hyperlink ref="D6" r:id="rId5"/>
     <hyperlink ref="D7" r:id="rId6"/>
     <hyperlink ref="D8" r:id="rId7"/>
-    <hyperlink ref="D9" r:id="rId8"/>
+    <hyperlink ref="D10" r:id="rId8"/>
+    <hyperlink ref="D11" r:id="rId9"/>
+    <hyperlink ref="D12" r:id="rId10"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/InterProPruebasAutomatizadas/InterProHerramientas/Comunes/DatosPrueba.xlsx
+++ b/InterProPruebasAutomatizadas/InterProHerramientas/Comunes/DatosPrueba.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="89">
   <si>
     <t>Usuario</t>
   </si>
@@ -270,16 +270,10 @@
     <t>xxxxxxxx</t>
   </si>
   <si>
-    <t>N/A</t>
-  </si>
-  <si>
     <t>editar</t>
   </si>
   <si>
     <t>Eliminar</t>
-  </si>
-  <si>
-    <t>Validar_Pregunta_Duplicada</t>
   </si>
   <si>
     <t>Validar_Campos_Obligatorios</t>
@@ -871,8 +865,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1315,7 +1309,7 @@
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1603,10 +1597,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1659,7 +1653,7 @@
         <v>76</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -1700,7 +1694,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>9</v>
@@ -1736,7 +1730,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>9</v>
@@ -1772,7 +1766,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>9</v>
@@ -1838,15 +1832,15 @@
         <v>81</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>9</v>
@@ -1863,24 +1857,18 @@
       <c r="F7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>82</v>
-      </c>
+      <c r="G7" s="4"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="2"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2" t="s">
-        <v>84</v>
+        <v>31</v>
       </c>
       <c r="L7" s="2"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>9</v>
@@ -1897,18 +1885,20 @@
       <c r="F8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G8" s="7" t="s">
-        <v>69</v>
+      <c r="G8" s="4" t="s">
+        <v>68</v>
       </c>
       <c r="H8" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="I8" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="J8" s="2"/>
+      <c r="I8" s="2">
+        <v>101</v>
+      </c>
+      <c r="J8" s="2">
+        <v>501</v>
+      </c>
       <c r="K8" s="2" t="s">
-        <v>84</v>
+        <v>31</v>
       </c>
       <c r="L8" s="2"/>
     </row>
@@ -1932,123 +1922,19 @@
         <v>7</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H9" s="6" t="s">
         <v>6</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="J9" s="2"/>
       <c r="K9" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L9" s="2"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="2">
-        <v>12345678</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="L10" s="2"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="2">
-        <v>12345678</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="L11" s="2"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="2">
-        <v>12345678</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="I12" s="2">
-        <v>50</v>
-      </c>
-      <c r="J12" s="2">
-        <v>50</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="L12" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2058,10 +1944,7 @@
     <hyperlink ref="D5" r:id="rId4"/>
     <hyperlink ref="D6" r:id="rId5"/>
     <hyperlink ref="D7" r:id="rId6"/>
-    <hyperlink ref="D8" r:id="rId7"/>
-    <hyperlink ref="D10" r:id="rId8"/>
-    <hyperlink ref="D11" r:id="rId9"/>
-    <hyperlink ref="D12" r:id="rId10"/>
+    <hyperlink ref="D9" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/InterProPruebasAutomatizadas/InterProHerramientas/Comunes/DatosPrueba.xlsx
+++ b/InterProPruebasAutomatizadas/InterProHerramientas/Comunes/DatosPrueba.xlsx
@@ -4,14 +4,15 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="UsuariosPortal" sheetId="1" r:id="rId1"/>
     <sheet name="PlanesDeServicio" sheetId="2" r:id="rId2"/>
     <sheet name="Empleados" sheetId="3" r:id="rId3"/>
+    <sheet name="PreguntasFrecuentes" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="89">
   <si>
     <t>Usuario</t>
   </si>
@@ -210,6 +211,84 @@
   </si>
   <si>
     <t>Juan Valderrama</t>
+  </si>
+  <si>
+    <t>Categoria</t>
+  </si>
+  <si>
+    <t>Activar</t>
+  </si>
+  <si>
+    <t>Pregunta</t>
+  </si>
+  <si>
+    <t>Respuesta</t>
+  </si>
+  <si>
+    <t>Servicio / Producto</t>
+  </si>
+  <si>
+    <t>Robo de identidad</t>
+  </si>
+  <si>
+    <t>Contacto</t>
+  </si>
+  <si>
+    <t>Quienes somos</t>
+  </si>
+  <si>
+    <t>Tiene dudas sobre el producto</t>
+  </si>
+  <si>
+    <t>Como proteger su identidad</t>
+  </si>
+  <si>
+    <t>Desea contactarnos</t>
+  </si>
+  <si>
+    <t>Informacion de WEPID</t>
+  </si>
+  <si>
+    <t>xxxx</t>
+  </si>
+  <si>
+    <t>TipoPrueba</t>
+  </si>
+  <si>
+    <t>Crea</t>
+  </si>
+  <si>
+    <t>Alta_Exitosa_PreguntaCamposObligatorios</t>
+  </si>
+  <si>
+    <t>Eliminar_Pregunta</t>
+  </si>
+  <si>
+    <t>Editar_Pregunta</t>
+  </si>
+  <si>
+    <t>xxxxxxxx</t>
+  </si>
+  <si>
+    <t>editar</t>
+  </si>
+  <si>
+    <t>Eliminar</t>
+  </si>
+  <si>
+    <t>Validar_Campos_Obligatorios</t>
+  </si>
+  <si>
+    <t>Varlidar_Longitud_Campos</t>
+  </si>
+  <si>
+    <t>Alta_Exitosa_PreguntaCamposObligatorios_</t>
+  </si>
+  <si>
+    <t>PreguntaEditada</t>
+  </si>
+  <si>
+    <t>Esta Pregunta Fue editada</t>
   </si>
 </sst>
 </file>
@@ -786,8 +865,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1229,8 +1308,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1514,4 +1593,359 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="48.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="48" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" customWidth="1"/>
+    <col min="9" max="9" width="31.7109375" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" customWidth="1"/>
+    <col min="12" max="12" width="28.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="2">
+        <v>12345678</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="L2" s="2"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="2">
+        <v>12345678</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="L3" s="2"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="2">
+        <v>12345678</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="L4" s="2"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="2">
+        <v>12345678</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="L5" s="2"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="2">
+        <v>12345678</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="2">
+        <v>12345678</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" s="4"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="2">
+        <v>12345678</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I8" s="2">
+        <v>101</v>
+      </c>
+      <c r="J8" s="2">
+        <v>501</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L8" s="2"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="2">
+        <v>12345678</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="L9" s="2"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="D3" r:id="rId2"/>
+    <hyperlink ref="D4" r:id="rId3"/>
+    <hyperlink ref="D5" r:id="rId4"/>
+    <hyperlink ref="D6" r:id="rId5"/>
+    <hyperlink ref="D7" r:id="rId6"/>
+    <hyperlink ref="D9" r:id="rId7"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/InterProPruebasAutomatizadas/InterProHerramientas/Comunes/DatosPrueba.xlsx
+++ b/InterProPruebasAutomatizadas/InterProHerramientas/Comunes/DatosPrueba.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="UsuariosPortal" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="87">
   <si>
     <t>Usuario</t>
   </si>
@@ -168,9 +168,6 @@
     <t>EmpleadoValidarLongitudCampos</t>
   </si>
   <si>
-    <t>36</t>
-  </si>
-  <si>
     <t>EmpleadoValidarUsuarioDuplicado</t>
   </si>
   <si>
@@ -198,18 +195,9 @@
     <t>Armando Mejia</t>
   </si>
   <si>
-    <t>ArmandoMejia@mailinator.com</t>
-  </si>
-  <si>
     <t>pruebacorreoyopmailcom</t>
   </si>
   <si>
-    <t>prueba.correo@yopmail.com</t>
-  </si>
-  <si>
-    <t>juan.valderrama1@mobiik.com</t>
-  </si>
-  <si>
     <t>Juan Valderrama</t>
   </si>
   <si>
@@ -289,6 +277,12 @@
   </si>
   <si>
     <t>Esta Pregunta Fue editada</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>Mejia10@mailinator.com</t>
   </si>
 </sst>
 </file>
@@ -946,7 +940,7 @@
         <v>7</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H2" s="4">
         <v>21.2</v>
@@ -985,7 +979,7 @@
         <v>7</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H3" s="4">
         <v>45</v>
@@ -1024,7 +1018,7 @@
         <v>7</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H4" s="4">
         <v>16</v>
@@ -1127,7 +1121,7 @@
         <v>7</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H7" s="4">
         <v>11</v>
@@ -1166,7 +1160,7 @@
         <v>7</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H8" s="4"/>
       <c r="I8" s="2"/>
@@ -1197,7 +1191,7 @@
         <v>7</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H9" s="4"/>
       <c r="I9" s="2"/>
@@ -1228,7 +1222,7 @@
         <v>7</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H10" s="4">
         <v>21.2</v>
@@ -1246,7 +1240,7 @@
         <v>39</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -1269,7 +1263,7 @@
         <v>7</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H11" s="4">
         <v>59.3</v>
@@ -1287,7 +1281,7 @@
         <v>39</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1308,8 +1302,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1377,11 +1371,9 @@
         <v>7</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>58</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="H2" s="6"/>
       <c r="I2" s="2" t="s">
         <v>44</v>
       </c>
@@ -1409,9 +1401,7 @@
         <v>7</v>
       </c>
       <c r="G3" s="4"/>
-      <c r="H3" s="6" t="s">
-        <v>58</v>
-      </c>
+      <c r="H3" s="6"/>
       <c r="I3" s="2" t="s">
         <v>44</v>
       </c>
@@ -1439,10 +1429,10 @@
         <v>7</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>48</v>
+        <v>85</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>58</v>
+        <v>86</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>44</v>
@@ -1453,7 +1443,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>9</v>
@@ -1471,11 +1461,9 @@
         <v>7</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>58</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="H5" s="6"/>
       <c r="I5" s="2" t="s">
         <v>44</v>
       </c>
@@ -1485,7 +1473,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>9</v>
@@ -1503,11 +1491,9 @@
         <v>7</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>60</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="H6" s="6"/>
       <c r="I6" s="2" t="s">
         <v>44</v>
       </c>
@@ -1517,7 +1503,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>9</v>
@@ -1535,11 +1521,9 @@
         <v>7</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>61</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="H7" s="6"/>
       <c r="I7" s="2" t="s">
         <v>44</v>
       </c>
@@ -1549,7 +1533,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>9</v>
@@ -1567,11 +1551,9 @@
         <v>7</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>58</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="H8" s="6"/>
       <c r="I8" s="2" t="s">
         <v>44</v>
       </c>
@@ -1588,8 +1570,7 @@
     <hyperlink ref="D6" r:id="rId5"/>
     <hyperlink ref="D7" r:id="rId6"/>
     <hyperlink ref="D8" r:id="rId7"/>
-    <hyperlink ref="H7" r:id="rId8"/>
-    <hyperlink ref="H6" r:id="rId9"/>
+    <hyperlink ref="H4" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1599,7 +1580,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
@@ -1638,27 +1619,27 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>9</v>
@@ -1676,25 +1657,25 @@
         <v>7</v>
       </c>
       <c r="G2" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="H2" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>75</v>
-      </c>
       <c r="K2" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="L2" s="2"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>9</v>
@@ -1712,25 +1693,25 @@
         <v>7</v>
       </c>
       <c r="G3" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="H3" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="J3" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="L3" s="2"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>9</v>
@@ -1748,25 +1729,25 @@
         <v>7</v>
       </c>
       <c r="G4" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="H4" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="I4" s="2" t="s">
+      <c r="J4" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>77</v>
       </c>
       <c r="L4" s="2"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>9</v>
@@ -1784,25 +1765,25 @@
         <v>7</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="H5" s="6" t="s">
         <v>28</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="L5" s="2"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>9</v>
@@ -1820,27 +1801,27 @@
         <v>7</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H6" s="6" t="s">
         <v>6</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>9</v>
@@ -1868,7 +1849,7 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>9</v>
@@ -1886,7 +1867,7 @@
         <v>7</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H8" s="6" t="s">
         <v>6</v>
@@ -1904,7 +1885,7 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>9</v>
@@ -1922,17 +1903,17 @@
         <v>7</v>
       </c>
       <c r="G9" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I9" s="2" t="s">
         <v>68</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>72</v>
       </c>
       <c r="J9" s="2"/>
       <c r="K9" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="L9" s="2"/>
     </row>
